--- a/docentes/Velasco Sánchez David - Estadisticos 20242.xlsx
+++ b/docentes/Velasco Sánchez David - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="62">
   <si>
     <t>Mat</t>
   </si>
@@ -94,352 +94,115 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>ENCARNACION</t>
-  </si>
-  <si>
-    <t>MONTERD</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>LOYO</t>
+    <t>PLIEGO</t>
   </si>
   <si>
     <t>VALDIVIA</t>
   </si>
   <si>
-    <t>DOMINGUEZ</t>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
   </si>
   <si>
     <t>BAEZ</t>
   </si>
   <si>
+    <t>VICENTE</t>
+  </si>
+  <si>
     <t>ARIAS</t>
   </si>
   <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>PALOMINO</t>
-  </si>
-  <si>
-    <t>ANGEL</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>VENTURA</t>
   </si>
   <si>
     <t>RAMIREZ</t>
   </si>
   <si>
-    <t>ARGUELLES</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
+    <t>CORRO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>TENORIO</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>QUINTANA</t>
+  </si>
+  <si>
+    <t>SOTO</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>SALOMON</t>
   </si>
   <si>
     <t>GARCIA</t>
   </si>
   <si>
-    <t>JENKINS</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>VENTURA</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>MOTA</t>
-  </si>
-  <si>
-    <t>NICIO</t>
-  </si>
-  <si>
-    <t>TLAXCALA</t>
-  </si>
-  <si>
-    <t>ALCANTARA</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>ROSALES</t>
-  </si>
-  <si>
-    <t>ZACARIAS</t>
-  </si>
-  <si>
-    <t>VICENTE</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>ENRIQUEZ</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>CORRO</t>
-  </si>
-  <si>
-    <t>GARRIDO</t>
-  </si>
-  <si>
-    <t>JAIMES</t>
-  </si>
-  <si>
-    <t>TENORIO</t>
-  </si>
-  <si>
-    <t>SOSA</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>SOTO</t>
-  </si>
-  <si>
-    <t>ACOSTA</t>
-  </si>
-  <si>
-    <t>MARIA</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>PERALTA</t>
-  </si>
-  <si>
-    <t>COXCAHUA</t>
-  </si>
-  <si>
-    <t>ALFONSO</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>MORA</t>
-  </si>
-  <si>
-    <t>VALIENTE</t>
-  </si>
-  <si>
-    <t>SALOMON</t>
-  </si>
-  <si>
-    <t>MONTIEL</t>
-  </si>
-  <si>
-    <t>DE LA ROSA</t>
-  </si>
-  <si>
-    <t>ESTRADA</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>GUZMAN</t>
-  </si>
-  <si>
-    <t>QUINTANA</t>
-  </si>
-  <si>
-    <t>GALINDO</t>
-  </si>
-  <si>
     <t>JOSE</t>
   </si>
   <si>
-    <t>BERMUDEZ</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>RICO</t>
-  </si>
-  <si>
-    <t>CIRUELO</t>
-  </si>
-  <si>
-    <t>JULISSA</t>
-  </si>
-  <si>
-    <t>ISAI</t>
-  </si>
-  <si>
-    <t>YOSELYN</t>
-  </si>
-  <si>
-    <t>EVELYN</t>
+    <t>MYA YAMILET</t>
   </si>
   <si>
     <t>IKER YHAIR</t>
   </si>
   <si>
-    <t>JOSUE</t>
+    <t>EDER</t>
+  </si>
+  <si>
+    <t>JUAN</t>
   </si>
   <si>
     <t>EDUARDO EMER</t>
   </si>
   <si>
+    <t>CRISTIAN</t>
+  </si>
+  <si>
     <t>IGNACIO</t>
   </si>
   <si>
-    <t>MIGUEL ANTONIO</t>
-  </si>
-  <si>
-    <t>AARON MIGUEL</t>
-  </si>
-  <si>
-    <t>KAREN ITAMAR</t>
-  </si>
-  <si>
-    <t>ANGELA CITLALY</t>
+    <t>CAROLINA DEL CARMEN</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
   </si>
   <si>
     <t>CRISTOFER FRANCISCO</t>
   </si>
   <si>
-    <t>DANNA CAMILA</t>
-  </si>
-  <si>
-    <t>ARELY</t>
-  </si>
-  <si>
-    <t>CRISTAL</t>
-  </si>
-  <si>
-    <t>DAYANA</t>
-  </si>
-  <si>
-    <t>SARA ALY</t>
-  </si>
-  <si>
-    <t>ANGEL GAEL</t>
-  </si>
-  <si>
-    <t>DIEGO DE JESUS</t>
-  </si>
-  <si>
-    <t>ARTHUR RICHARD</t>
-  </si>
-  <si>
-    <t>JULIAN DAVID</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>ABRIL</t>
-  </si>
-  <si>
-    <t>INGRID ABIGAIL</t>
-  </si>
-  <si>
-    <t>JENIFER</t>
-  </si>
-  <si>
-    <t>DIANA CAMILA</t>
-  </si>
-  <si>
-    <t>DIANA KELLY</t>
-  </si>
-  <si>
-    <t>SARAI</t>
-  </si>
-  <si>
-    <t>ANGEL DAVID</t>
-  </si>
-  <si>
-    <t>ANGEL JESUS</t>
-  </si>
-  <si>
-    <t>DORIAN</t>
-  </si>
-  <si>
-    <t>ANGEL ABRAHAM</t>
-  </si>
-  <si>
-    <t>CRISTIAN</t>
+    <t>DINORAH AZUL</t>
   </si>
   <si>
     <t>JONATAN GILBERTO</t>
   </si>
   <si>
-    <t>BRANDON</t>
-  </si>
-  <si>
     <t>HECTOR MISAEL</t>
-  </si>
-  <si>
-    <t>YAMILETH</t>
-  </si>
-  <si>
-    <t>LUZ YESENIA</t>
-  </si>
-  <si>
-    <t>SILVANA</t>
-  </si>
-  <si>
-    <t>XIMENA ISABEL</t>
-  </si>
-  <si>
-    <t>NURIA BELEN</t>
-  </si>
-  <si>
-    <t>GISELA GUADALUPE</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>VICTORIA VIANNEY</t>
-  </si>
-  <si>
-    <t>DINORAH AZUL</t>
   </si>
 </sst>
 </file>
@@ -918,22 +681,16 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>92.86</v>
-      </c>
-      <c r="H5">
-        <v>9.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1093,16 +850,19 @@
         <v>39</v>
       </c>
       <c r="D2">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>97.44</v>
+      </c>
+      <c r="H2">
+        <v>7.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1116,16 +876,19 @@
         <v>49</v>
       </c>
       <c r="D3">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>91.84</v>
+      </c>
+      <c r="H3">
+        <v>7.1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1139,16 +902,19 @@
         <v>38</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>84.20999999999999</v>
+      </c>
+      <c r="H4">
+        <v>7.2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1159,18 +925,15 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
         <v>0</v>
       </c>
     </row>
@@ -1185,16 +948,19 @@
         <v>28</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>96.43000000000001</v>
+      </c>
+      <c r="H6">
+        <v>8.300000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1208,16 +974,19 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>91.43000000000001</v>
+      </c>
+      <c r="H7">
+        <v>7.9</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1231,16 +1000,19 @@
         <v>31</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>93.55</v>
+      </c>
+      <c r="H8">
+        <v>7.4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1254,16 +1026,19 @@
         <v>17</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>82.34999999999999</v>
+      </c>
+      <c r="H9">
+        <v>7.1</v>
       </c>
     </row>
   </sheetData>
@@ -1322,16 +1097,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G2">
-        <v>87.18000000000001</v>
+        <v>97.44</v>
       </c>
       <c r="H2">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1348,16 +1123,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G3">
-        <v>71.43000000000001</v>
+        <v>91.84</v>
       </c>
       <c r="H3">
-        <v>7.1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1374,16 +1149,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>68.42</v>
+        <v>84.20999999999999</v>
       </c>
       <c r="H4">
-        <v>7.2</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1394,18 +1169,15 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
         <v>0</v>
       </c>
     </row>
@@ -1423,16 +1195,16 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>96.43000000000001</v>
       </c>
       <c r="H6">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1458,7 +1230,7 @@
         <v>91.43000000000001</v>
       </c>
       <c r="H7">
-        <v>7.9</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1475,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G8">
-        <v>80.65000000000001</v>
+        <v>93.55</v>
       </c>
       <c r="H8">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1501,16 +1273,16 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>76.47</v>
+        <v>82.34999999999999</v>
       </c>
       <c r="H9">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
     </row>
   </sheetData>
@@ -1520,7 +1292,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1555,16 +1327,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>24330051920088</v>
+        <v>24330051920117</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1578,22 +1350,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>24330051920281</v>
+        <v>24330051920341</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1601,22 +1373,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>24330051920120</v>
+        <v>22330051920006</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1624,131 +1396,131 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>24330051920366</v>
+        <v>24330051920129</v>
       </c>
       <c r="B5" t="s">
         <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>24330051920341</v>
+        <v>22330051920150</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>23330051920240</v>
+        <v>22330051920426</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>22330051920150</v>
+        <v>21330051920396</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>21330051920396</v>
+        <v>24330051920139</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>22330051920038</v>
+        <v>22330051920049</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1757,857 +1529,98 @@
         <v>17</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>22330051920043</v>
+        <v>24330051920163</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
       </c>
       <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
         <v>58</v>
       </c>
-      <c r="D11" t="s">
-        <v>104</v>
-      </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>24330051920195</v>
+        <v>22330051920162</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>24330051920225</v>
+        <v>22330051920405</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>24330051920163</v>
+        <v>22330051920279</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>24330051920089</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>24330051920112</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>24330051920091</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>24330051920108</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>77</v>
-      </c>
-      <c r="D18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>24330051920040</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
-        <v>24330051920375</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
-        <v>23330051920191</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
-        <v>22330051920189</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>115</v>
-      </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
-        <v>22330051920045</v>
-      </c>
-      <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
-        <v>22330051920049</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
-        <v>24330051920361</v>
-      </c>
-      <c r="B25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" t="s">
-        <v>118</v>
-      </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
-        <v>24330051920352</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
-        <v>24330051920048</v>
-      </c>
-      <c r="B27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>24330051920038</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>24330051920374</v>
-      </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>24330051420135</v>
-      </c>
-      <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>23330051920213</v>
-      </c>
-      <c r="B31" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" t="s">
-        <v>124</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>23330051920216</v>
-      </c>
-      <c r="B32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>23330051920207</v>
-      </c>
-      <c r="B33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>23330051920280</v>
-      </c>
-      <c r="B34" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" t="s">
-        <v>127</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>22330051920426</v>
-      </c>
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>22330051920405</v>
-      </c>
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" t="s">
-        <v>129</v>
-      </c>
-      <c r="E36" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>22330051920395</v>
-      </c>
-      <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" t="s">
-        <v>130</v>
-      </c>
-      <c r="E37" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>22330051920279</v>
-      </c>
-      <c r="B38" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" t="s">
-        <v>131</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>23330051920226</v>
-      </c>
-      <c r="B39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
-        <v>23330051920244</v>
-      </c>
-      <c r="B40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" t="s">
-        <v>133</v>
-      </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41">
-        <v>23330051920333</v>
-      </c>
-      <c r="B41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
-        <v>23330051920252</v>
-      </c>
-      <c r="B42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" t="s">
-        <v>135</v>
-      </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43">
-        <v>23330051920239</v>
-      </c>
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44">
-        <v>23330051920328</v>
-      </c>
-      <c r="B44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" t="s">
-        <v>94</v>
-      </c>
-      <c r="D44" t="s">
-        <v>137</v>
-      </c>
-      <c r="E44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45">
-        <v>23330051920270</v>
-      </c>
-      <c r="B45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" t="s">
-        <v>138</v>
-      </c>
-      <c r="E45" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46">
-        <v>23330051920276</v>
-      </c>
-      <c r="B46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47">
-        <v>22330051920162</v>
-      </c>
-      <c r="B47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" t="s">
-        <v>140</v>
-      </c>
-      <c r="E47" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" t="s">
-        <v>16</v>
-      </c>
-      <c r="G47">
         <v>1</v>
       </c>
     </row>
